--- a/excel/Indicativo - Passato Prossimo.xlsx
+++ b/excel/Indicativo - Passato Prossimo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620"/>
+    <workbookView windowWidth="30720" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>nascere</t>
   </si>
   <si>
-    <t>è nato/nata</t>
+    <t>è nata/nato</t>
   </si>
   <si>
     <t>Dante è nato a Firenze.</t>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/excel/Indicativo - Passato Prossimo.xlsx
+++ b/excel/Indicativo - Passato Prossimo.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1438,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>

--- a/excel/Indicativo - Passato Prossimo.xlsx
+++ b/excel/Indicativo - Passato Prossimo.xlsx
@@ -61,34 +61,34 @@
     <t>correre</t>
   </si>
   <si>
+    <t>sono corsa/corso</t>
+  </si>
+  <si>
+    <t>Sono corsa qui appena ho saputo dell'incidente.</t>
+  </si>
+  <si>
+    <t>dividere</t>
+  </si>
+  <si>
+    <t>ho diviso</t>
+  </si>
+  <si>
+    <t>Hanno diviso l'appartamento.</t>
+  </si>
+  <si>
+    <t>essere</t>
+  </si>
+  <si>
+    <t>sono stata/stato</t>
+  </si>
+  <si>
+    <t>Ieri siamo state al cinema.</t>
+  </si>
+  <si>
+    <t>morire</t>
+  </si>
+  <si>
     <t>lei/lui</t>
-  </si>
-  <si>
-    <t>sono corsa/corso</t>
-  </si>
-  <si>
-    <t>Sono corsa qui appena ho saputo dell'incidente.</t>
-  </si>
-  <si>
-    <t>dividere</t>
-  </si>
-  <si>
-    <t>ho diviso</t>
-  </si>
-  <si>
-    <t>Hanno diviso l'appartamento.</t>
-  </si>
-  <si>
-    <t>essere</t>
-  </si>
-  <si>
-    <t>sono stata/stato</t>
-  </si>
-  <si>
-    <t>Ieri siamo state al cinema.</t>
-  </si>
-  <si>
-    <t>morire</t>
   </si>
   <si>
     <t>è morta/morto</t>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1336,13 +1336,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1384,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1404,7 +1404,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1421,7 +1421,7 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -1438,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1608,7 +1608,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1724,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1741,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>87</v>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -1775,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1792,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
